--- a/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
+++ b/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F9E4C5-14FC-4F0A-B3C1-4DA51D9DA7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,44 +616,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
